--- a/Project_Euler_8.xlsx
+++ b/Project_Euler_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\3-Data_Science\Python\Projects\20190727_Project_Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D86B89-24F1-4FCB-B0A6-5E7454F7BAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A427E-194B-4368-9DEC-72F70E11BAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="13185" xr2:uid="{458F65C2-A64E-46CE-8AF1-B6FF5403175B}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Max_Sum</t>
-  </si>
-  <si>
     <t>13 Adjacent Numbers</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>Max_Product</t>
   </si>
 </sst>
 </file>
@@ -634,10 +634,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -655,7 +655,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <f>MAX(S:S)</f>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f>INDEX(D:S,MATCH($B$9,S:S,0),1)</f>
@@ -63138,7 +63138,7 @@
         <v>961</v>
       </c>
       <c r="E965" s="4" t="str">
-        <f t="shared" ref="E965:E1028" si="83">MID($B$3,D965,$B$4)</f>
+        <f t="shared" ref="E965:E992" si="83">MID($B$3,D965,$B$4)</f>
         <v>1882670428252</v>
       </c>
       <c r="F965" s="4">
